--- a/300afskpll_iir_lpf_calc.xlsx
+++ b/300afskpll_iir_lpf_calc.xlsx
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/300afskpll_iir_lpf_calc.xlsx
+++ b/300afskpll_iir_lpf_calc.xlsx
@@ -477,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>6.9444444444444444E-5</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>942.81437989361052</v>
+        <v>943.82586453943043</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -574,7 +574,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>6.5473220825945172E-2</v>
+        <v>0.13108692563047644</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.065473220825945</v>
+        <v>2.1310869256304765</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,7 +595,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9345267791740548</v>
+        <v>1.8689130743695235</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -604,7 +604,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.93660220799206151</v>
+        <v>0.87697646299275678</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -616,7 +616,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>3.1698896003969315E-2</v>
+        <v>6.1511768503621556E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -628,7 +628,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>3.1698896003969315E-2</v>
+        <v>6.1511768503621556E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>1039</v>
+        <v>2016</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -677,7 +677,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>1039</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -689,7 +689,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>30691</v>
+        <v>28737</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
